--- a/Instances/04_Normal.xlsx
+++ b/Instances/04_Normal.xlsx
@@ -9,8 +9,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Generic" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requirement" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Productdata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForecastedAverageDemand" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForcastedStandardDeviation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2254,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3233</v>
+        <v>2933</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>291.98</v>
+        <v>280.39</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2283,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>920</v>
+        <v>770</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>104.29</v>
+        <v>114.97</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2312,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>32.19</v>
+        <v>31.38</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2341,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>35.32</v>
+        <v>42.99</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2370,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>343</v>
+        <v>490</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>48.39</v>
+        <v>63.63</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2399,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>17.64</v>
+        <v>21.43</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2428,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>6.48</v>
+        <v>5.58</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2457,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>597</v>
+        <v>506</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>87.88</v>
+        <v>98.52</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2486,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>69.20999999999999</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2515,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>978</v>
+        <v>1526</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>154.41</v>
+        <v>215.24</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2544,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>50.02</v>
+        <v>43.66</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2573,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1757</v>
+        <v>2403</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>319.32</v>
+        <v>265.53</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2602,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>868</v>
+        <v>907</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>97.8</v>
+        <v>141.07</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2631,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>31.27</v>
+        <v>33.35</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2660,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>398</v>
+        <v>235</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>36.83</v>
+        <v>48.93</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2689,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>55.2</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2718,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>16.14</v>
+        <v>17.71</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2753,7 +2755,7 @@
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>5.75</v>
+        <v>5.64</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2776,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>5818</v>
+        <v>5433</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>691.04</v>
+        <v>692.23</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2805,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5597</v>
+        <v>4243</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>508.23</v>
+        <v>613.27</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2834,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>4054</v>
+        <v>4255</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>637.7</v>
+        <v>600.6900000000001</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2863,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>5164</v>
+        <v>3406</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>622.62</v>
+        <v>680.9299999999999</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -2890,6 +2892,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>600</v>
+      </c>
+      <c r="D2" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>300</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90</v>
+      </c>
+      <c r="H2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2" t="n">
+        <v>420</v>
+      </c>
+      <c r="J2" t="n">
+        <v>300</v>
+      </c>
+      <c r="K2" t="n">
+        <v>900</v>
+      </c>
+      <c r="L2" t="n">
+        <v>210</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>600</v>
+      </c>
+      <c r="D3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>300</v>
+      </c>
+      <c r="G3" t="n">
+        <v>90</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I3" t="n">
+        <v>420</v>
+      </c>
+      <c r="J3" t="n">
+        <v>300</v>
+      </c>
+      <c r="K3" t="n">
+        <v>900</v>
+      </c>
+      <c r="L3" t="n">
+        <v>210</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>300</v>
+      </c>
+      <c r="G4" t="n">
+        <v>90</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+      <c r="I4" t="n">
+        <v>420</v>
+      </c>
+      <c r="J4" t="n">
+        <v>300</v>
+      </c>
+      <c r="K4" t="n">
+        <v>900</v>
+      </c>
+      <c r="L4" t="n">
+        <v>210</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>600</v>
+      </c>
+      <c r="D5" t="n">
+        <v>150</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>300</v>
+      </c>
+      <c r="G5" t="n">
+        <v>90</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" t="n">
+        <v>420</v>
+      </c>
+      <c r="J5" t="n">
+        <v>300</v>
+      </c>
+      <c r="K5" t="n">
+        <v>900</v>
+      </c>
+      <c r="L5" t="n">
+        <v>210</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>600</v>
+      </c>
+      <c r="D6" t="n">
+        <v>150</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>300</v>
+      </c>
+      <c r="G6" t="n">
+        <v>90</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30</v>
+      </c>
+      <c r="I6" t="n">
+        <v>420</v>
+      </c>
+      <c r="J6" t="n">
+        <v>300</v>
+      </c>
+      <c r="K6" t="n">
+        <v>900</v>
+      </c>
+      <c r="L6" t="n">
+        <v>210</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>600</v>
+      </c>
+      <c r="D7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>300</v>
+      </c>
+      <c r="G7" t="n">
+        <v>90</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" t="n">
+        <v>420</v>
+      </c>
+      <c r="J7" t="n">
+        <v>300</v>
+      </c>
+      <c r="K7" t="n">
+        <v>900</v>
+      </c>
+      <c r="L7" t="n">
+        <v>210</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>600</v>
+      </c>
+      <c r="D8" t="n">
+        <v>150</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>300</v>
+      </c>
+      <c r="G8" t="n">
+        <v>90</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" t="n">
+        <v>420</v>
+      </c>
+      <c r="J8" t="n">
+        <v>300</v>
+      </c>
+      <c r="K8" t="n">
+        <v>900</v>
+      </c>
+      <c r="L8" t="n">
+        <v>210</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>600</v>
+      </c>
+      <c r="D9" t="n">
+        <v>150</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>300</v>
+      </c>
+      <c r="G9" t="n">
+        <v>90</v>
+      </c>
+      <c r="H9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" t="n">
+        <v>420</v>
+      </c>
+      <c r="J9" t="n">
+        <v>300</v>
+      </c>
+      <c r="K9" t="n">
+        <v>900</v>
+      </c>
+      <c r="L9" t="n">
+        <v>210</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2913,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11664</v>
+        <v>14580</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2929,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1080</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2937,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2953,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>648</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2961,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>216</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2969,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3780</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2977,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2700</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2985,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6480</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2993,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1890</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3001,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8748</v>
+        <v>11664</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3009,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1080</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3017,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3025,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1134</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3041,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>324</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3049,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>108</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3057,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10800</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3065,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21600</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3073,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16200</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3089,7 +4401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3176,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3324,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3398,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3546,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3620,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3694,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -3768,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3842,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3916,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3990,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4064,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4138,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4212,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4360,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -4434,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -4508,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -4582,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -4656,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>

--- a/Instances/04_Normal.xlsx
+++ b/Instances/04_Normal.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2933</v>
+        <v>3038</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>280.39</v>
+        <v>1.18</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>770</v>
+        <v>644</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>114.97</v>
+        <v>0.53</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>31.38</v>
+        <v>0.12</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>381</v>
+        <v>339</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>42.99</v>
+        <v>0.15</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>490</v>
+        <v>307</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>63.63</v>
+        <v>0.25</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>21.43</v>
+        <v>0.08</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>5.58</v>
+        <v>0.02</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>98.52</v>
+        <v>0.31</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>331</v>
+        <v>471</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>71.93000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1526</v>
+        <v>1386</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>215.24</v>
+        <v>0.74</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>43.66</v>
+        <v>0.15</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2403</v>
+        <v>2775</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>265.53</v>
+        <v>1.48</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>907</v>
+        <v>1058</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>141.07</v>
+        <v>0.54</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>298</v>
+        <v>218</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>33.35</v>
+        <v>0.12</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>48.93</v>
+        <v>0.18</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>420</v>
+        <v>488</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>69.45999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>17.71</v>
+        <v>0.08</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>5.64</v>
+        <v>0.02</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>5433</v>
+        <v>3568</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>692.23</v>
+        <v>2.44</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>4243</v>
+        <v>3013</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>613.27</v>
+        <v>2.51</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>4255</v>
+        <v>4635</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>600.6900000000001</v>
+        <v>2.79</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3406</v>
+        <v>3907</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>680.9299999999999</v>
+        <v>2.22</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14580</v>
+        <v>8748</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5400</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>270</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1134</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1080</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>162</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>270</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3024</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11664</v>
+        <v>8748</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5400</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1512</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2700</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>810</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27000</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10800</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10800</v>
+        <v>27000</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_Normal.xlsx
+++ b/Instances/04_Normal.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3038</v>
+        <v>1387</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>1.18</v>
+        <v>310.1013590116608</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>644</v>
+        <v>786</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.53</v>
+        <v>120.5684651293936</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.12</v>
+        <v>29.31648776469482</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>339</v>
+        <v>206</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.15</v>
+        <v>31.61372947902473</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>50.54632533218628</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08</v>
+        <v>14.57993003448226</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02</v>
+        <v>4.439475270286847</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.31</v>
+        <v>71.25363897262432</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>471</v>
+        <v>280</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.23</v>
+        <v>45.18917263726294</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1386</v>
+        <v>705</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.74</v>
+        <v>165.1859208040837</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.15</v>
+        <v>41.47648502391834</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2775</v>
+        <v>1355</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>1.48</v>
+        <v>271.5158219918839</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1058</v>
+        <v>501</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.54</v>
+        <v>101.9215489963742</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.12</v>
+        <v>27.29084345124857</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.18</v>
+        <v>29.48729509768765</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>488</v>
+        <v>351</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>0.27</v>
+        <v>45.179942302845</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08</v>
+        <v>12.90116606200995</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02</v>
+        <v>4.115060944387964</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3568</v>
+        <v>3187</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>2.44</v>
+        <v>51.44112023031838</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>3013</v>
+        <v>2863</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>2.51</v>
+        <v>77.59640128430254</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>4635</v>
+        <v>2261</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>2.79</v>
+        <v>81.00617010171563</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3907</v>
+        <v>3370</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>2.22</v>
+        <v>272.0141256193209</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8748</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2160</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1080</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2700</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>486</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3780</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3240</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1512</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8748</v>
+        <v>11664</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1080</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1080</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>486</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>270</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5400</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5400</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5400</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27000</v>
+        <v>5400</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_Normal.xlsx
+++ b/Instances/04_Normal.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1387</v>
+        <v>2014</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>310.1013590116608</v>
+        <v>16.34373906200179</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>786</v>
+        <v>821</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>120.5684651293936</v>
+        <v>7.294679605161862</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>29.31648776469482</v>
+        <v>1.589158886495459</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>31.61372947902473</v>
+        <v>1.872666647255483</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>335</v>
+        <v>449</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>50.54632533218628</v>
+        <v>2.934325073734856</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>14.57993003448226</v>
+        <v>0.9249658454153271</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>4.439475270286847</v>
+        <v>0.3245615373313499</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>480</v>
+        <v>343</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>71.25363897262432</v>
+        <v>4.10361699735929</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>45.18917263726294</v>
+        <v>3.360533359248874</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>165.1859208040837</v>
+        <v>10.85937991972341</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>41.47648502391834</v>
+        <v>2.198819694220338</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1355</v>
+        <v>2363</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>271.5158219918839</v>
+        <v>19.42852529387698</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>101.9215489963742</v>
+        <v>6.950579657466459</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>27.29084345124857</v>
+        <v>1.648389922804453</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>29.48729509768765</v>
+        <v>2.488945400394285</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>351</v>
+        <v>280</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>45.179942302845</v>
+        <v>2.501544243599996</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>12.90116606200995</v>
+        <v>1.076568071846549</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>4.115060944387964</v>
+        <v>0.3538984922848318</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3187</v>
+        <v>3729</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>51.44112023031838</v>
+        <v>3.20987365056295</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2863</v>
+        <v>3453</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>77.59640128430254</v>
+        <v>4.923575897862864</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2261</v>
+        <v>2805</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>81.00617010171563</v>
+        <v>5.014075736054321</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3370</v>
+        <v>3196</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>272.0141256193209</v>
+        <v>17.24829634062514</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2916</v>
+        <v>11664</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5400</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>540</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1512</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1080</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>324</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3024</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>540</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1350</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1134</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2160</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>162</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27000</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10800</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21600</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5400</v>
+        <v>27000</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_Normal.xlsx
+++ b/Instances/04_Normal.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2014</v>
+        <v>1636</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>16.34373906200179</v>
+        <v>112.9272783384983</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>821</v>
+        <v>608</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>7.294679605161862</v>
+        <v>48.68964871505901</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>1.589158886495459</v>
+        <v>13.56136900546729</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.872666647255483</v>
+        <v>14.41040799464258</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>449</v>
+        <v>308</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>2.934325073734856</v>
+        <v>28.28164558968767</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9249658454153271</v>
+        <v>6.603172786483802</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3245615373313499</v>
+        <v>2.739221841992949</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>4.10361699735929</v>
+        <v>37.14588985150798</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>3.360533359248874</v>
+        <v>23.24451013405925</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>702</v>
+        <v>908</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>10.85937991972341</v>
+        <v>85.42246485098829</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>2.198819694220338</v>
+        <v>15.8469871288419</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2363</v>
+        <v>1636</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>19.42852529387698</v>
+        <v>150.1188727651653</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>551</v>
+        <v>608</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>6.950579657466459</v>
+        <v>50.44871340351713</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>1.648389922804453</v>
+        <v>10.98243000822481</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>2.488945400394285</v>
+        <v>18.95253104087874</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>2.501544243599996</v>
+        <v>24.30188881718193</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>1.076568071846549</v>
+        <v>6.218716276389385</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3538984922848318</v>
+        <v>2.351893583254558</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3729</v>
+        <v>3065</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>3.20987365056295</v>
+        <v>25.80955683978329</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>3453</v>
+        <v>3065</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>4.923575897862864</v>
+        <v>37.31735758082722</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2805</v>
+        <v>3065</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>5.014075736054321</v>
+        <v>35.40226839335521</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3196</v>
+        <v>3065</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>17.24829634062514</v>
+        <v>152.7621608064188</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11664</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1080</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1350</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2700</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>162</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1080</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1620</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1890</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5400</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1512</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16200</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5400</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27000</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27000</v>
+        <v>5400</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_Normal.xlsx
+++ b/Instances/04_Normal.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>112.9272783384983</v>
+        <v>138.1387446673497</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>48.68964871505901</v>
+        <v>59.48677485933221</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>13.56136900546729</v>
+        <v>12.05800569429592</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>14.41040799464258</v>
+        <v>19.00538168407937</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>28.28164558968767</v>
+        <v>21.15939479670583</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>6.603172786483802</v>
+        <v>8.129467698730734</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>2.739221841992949</v>
+        <v>2.104887579540928</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>37.14588985150798</v>
+        <v>34.15746847101528</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>23.24451013405925</v>
+        <v>22.88367308738406</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>85.42246485098829</v>
+        <v>81.04476075345936</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>15.8469871288419</v>
+        <v>18.05690203212846</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>150.1188727651653</v>
+        <v>138.7001328792034</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>50.44871340351713</v>
+        <v>46.71499923020689</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>10.98243000822481</v>
+        <v>12.04097130775135</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>18.95253104087874</v>
+        <v>13.70337956347769</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>24.30188881718193</v>
+        <v>24.66796643078207</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>6.218716276389385</v>
+        <v>7.72367078152271</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>2.351893583254558</v>
+        <v>2.079679454178897</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3065</v>
+        <v>3041</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>25.80955683978329</v>
+        <v>25.60444829938915</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>3065</v>
+        <v>3041</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>37.31735758082722</v>
+        <v>39.3669251430307</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>3065</v>
+        <v>3041</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>35.40226839335521</v>
+        <v>40.68777211443066</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3065</v>
+        <v>3041</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>152.7621608064188</v>
+        <v>142.022463654859</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5832</v>
+        <v>11664</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5400</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>540</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>648</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2268</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1620</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4860</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3240</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1080</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>810</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10800</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5400</v>
+        <v>27000</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_Normal.xlsx
+++ b/Instances/04_Normal.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>138.1387446673497</v>
+        <v>192.456</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>605</v>
+        <v>1819</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>59.48677485933221</v>
+        <v>69.92999999999999</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>155</v>
+        <v>469</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>12.05800569429592</v>
+        <v>17.50333333333333</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>19.00538168407937</v>
+        <v>24.37516666666667</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>305</v>
+        <v>919</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>21.15939479670583</v>
+        <v>34.16333333333333</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>8.129467698730734</v>
+        <v>10.272</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>2.104887579540928</v>
+        <v>3.409333333333333</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>422</v>
+        <v>1267</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>34.15746847101528</v>
+        <v>50.49566666666666</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>303</v>
+        <v>911</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>22.88367308738406</v>
+        <v>35.99999999999999</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>905</v>
+        <v>2719</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>81.04476075345936</v>
+        <v>107.445</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>215</v>
+        <v>649</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>18.05690203212846</v>
+        <v>25.235</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>138.7001328792034</v>
+        <v>184.338</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>46.71499923020689</v>
+        <v>68.41666666666666</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>12.04097130775135</v>
+        <v>16.87416666666667</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>13.70337956347769</v>
+        <v>23.37766666666666</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>24.66796643078207</v>
+        <v>33.49499999999999</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>7.72367078152271</v>
+        <v>10.071</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>2.079679454178897</v>
+        <v>3.343333333333333</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3041</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>25.60444829938915</v>
+        <v>43.83333333333334</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>3041</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>39.3669251430307</v>
+        <v>46.53333333333333</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>3041</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>40.68777211443066</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3041</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>142.022463654859</v>
+        <v>177.2333333333333</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11664</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1080</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1080</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1134</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1080</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>486</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>216</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3024</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2700</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1620</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1512</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11664</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4320</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>270</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1134</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>540</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>324</v>
+        <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>54</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16200</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16200</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27000</v>
+        <v>150000</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>

--- a/Instances/04_Normal.xlsx
+++ b/Instances/04_Normal.xlsx
@@ -2262,7 +2262,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>192.456</v>
+        <v>103.92624</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1819</v>
+        <v>1803</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>69.92999999999999</v>
+        <v>37.7622</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>17.50333333333333</v>
+        <v>9.4518</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2349,7 +2349,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>24.37516666666667</v>
+        <v>13.16259</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>34.16333333333333</v>
+        <v>18.4482</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>10.272</v>
+        <v>5.546880000000002</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>3.409333333333333</v>
+        <v>1.84104</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>50.49566666666666</v>
+        <v>27.26766</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>35.99999999999999</v>
+        <v>19.44</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2719</v>
+        <v>2703</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>107.445</v>
+        <v>58.0203</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>25.235</v>
+        <v>13.6269</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2581,7 +2581,7 @@
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>184.338</v>
+        <v>99.54252000000001</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2610,7 +2610,7 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>68.41666666666666</v>
+        <v>36.94500000000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2639,7 +2639,7 @@
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>16.87416666666667</v>
+        <v>9.112050000000002</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2668,7 +2668,7 @@
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>23.37766666666666</v>
+        <v>12.62394</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2697,7 +2697,7 @@
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>33.49499999999999</v>
+        <v>18.0873</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2726,7 +2726,7 @@
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>10.071</v>
+        <v>5.438340000000001</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2755,7 +2755,7 @@
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>3.343333333333333</v>
+        <v>1.8054</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9030</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>43.83333333333334</v>
+        <v>23.67000000000001</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9030</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>46.53333333333333</v>
+        <v>25.128</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9030</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>57.59999999999999</v>
+        <v>31.104</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>9030</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>177.2333333333333</v>
+        <v>95.70600000000002</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16200</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6300</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12600</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8400</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>64800</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2100</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>900</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>30000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
